--- a/投标人失信查询.xlsx
+++ b/投标人失信查询.xlsx
@@ -1097,7 +1097,11 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>无记录</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1109,7 +1113,11 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>无记录</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
